--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\开发项目\Caculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAC5892-4BD8-40A6-9CF9-B21C55E420B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6E76BD-913D-4799-840C-4E78271565E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户输入运算数据a、b, 程序输出正确的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预期结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户输入运算数据a、b，a或b不合法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本流+备选流1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,15 +95,6 @@
   <si>
     <t>1、输入数据a、b，a、b为除int整型、float浮点型、double浮点型以外的其他数据类型，调用add()方法；
 2、输入数据a、b, a、b为除int整型、float浮点型、double浮点型以外的其他数据类型，调用div()方法；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、程序输出报错提示；
-2、程序输出报错提示；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户输入运算数据a、b，a或b大小超出范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,34 +109,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户输入运算数据a、b，运算规则不合法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本流+备选流3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、程序输出报错提示；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、输入数据a、b, b=0，调用div()方法；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、程序输出a加b的结果；
-2、程序输出a除以b的结果；
-3、程序输出溢出提示；
-4、程序输出溢出提示；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本流5：输出运算结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基本流6：将运算结果保存至历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_用户输入运算数据a、b, 程序输出正确的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_用户输入运算数据a、b，a或b大小超出范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04_用户输入运算数据a、b，运算规则不合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_用户输入运算数据a、b，a或b的数据类型不合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、程序运行失败，并输出报错提示：输入的数据a、b数据类型不合法；
+2、程序运行失败，并输出报错提示；输入的数据a、b数据类型不合法；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、程序输出输出异常类型ZeroDivisionError，并输出异常提示：除数不能为0；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1、程序输出a加b的结果；
+ 2、程序输出a除以b的结果；
+ 3、输出报错提示: "参数大小超出范围"；
+ 4、输出报错提示: "参数大小超出范围"；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -526,16 +526,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="56" x14ac:dyDescent="0.3">
@@ -546,16 +546,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="154" x14ac:dyDescent="0.3">
@@ -566,45 +566,45 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\开发项目\Caculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6E76BD-913D-4799-840C-4E78271565E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AAA40D-5117-42E7-8E1F-48DC5198B5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
